--- a/summary_total_sales_revenue.xlsx
+++ b/summary_total_sales_revenue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,173 +436,883 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Product ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unit Price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Number_Sold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Total_sales_revenue</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1404/01/01</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>52163000</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>90000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>544</v>
+      </c>
+      <c r="E2" t="n">
+        <v>48960000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1404/01/01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>142000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>568000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1404/01/01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>148000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>740000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1404/01/01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1404/01/01</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>156000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1404/01/01</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>166000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1404/01/01</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>169000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>169000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1404/01/01</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>189000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>189000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1404/01/01</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>211000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>422000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1404/01/01</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>234000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1404/01/01</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>259000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>259000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1404/01/02</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>313</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2390000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>103</v>
+      </c>
+      <c r="E13" t="n">
+        <v>246170000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1404/01/03</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>422</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2860000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>24</v>
+      </c>
+      <c r="E14" t="n">
+        <v>68640000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1404/01/03</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>423</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2650000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>33</v>
+      </c>
+      <c r="E15" t="n">
+        <v>87450000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1404/01/05</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>668</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3150000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>86</v>
+      </c>
+      <c r="E16" t="n">
+        <v>270900000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1404/01/05</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>669</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2550000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>73</v>
+      </c>
+      <c r="E17" t="n">
+        <v>186150000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1404/01/08</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>305</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2090000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123</v>
+      </c>
+      <c r="E18" t="n">
+        <v>257070000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1404/01/08</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>308</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2150000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>47</v>
+      </c>
+      <c r="E19" t="n">
+        <v>101050000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>313</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2390000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>147</v>
+      </c>
+      <c r="E20" t="n">
+        <v>351330000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>318</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2620000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2620000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>318</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2790000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95</v>
+      </c>
+      <c r="E22" t="n">
+        <v>265050000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>408</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1920000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17280000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>408</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2090000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>302</v>
+      </c>
+      <c r="E24" t="n">
+        <v>631180000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>409</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1960000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>15680000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>409</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2190000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>402</v>
+      </c>
+      <c r="E26" t="n">
+        <v>880380000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>414</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2420000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14520000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>414</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2590000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>362</v>
+      </c>
+      <c r="E28" t="n">
+        <v>937580000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>415</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2480000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9920000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>415</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2690000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>497</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1336930000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>417</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4390000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>13170000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>419</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2580000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>20640000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>419</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2750000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>453</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1245750000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>422</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2720000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8160000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1404/01/09</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>422</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2860000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>28</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80080000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1404/02/27</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>720</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1640000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>222</v>
+      </c>
+      <c r="E36" t="n">
+        <v>364080000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1404/02/27</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>723</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2340000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>49</v>
+      </c>
+      <c r="E37" t="n">
+        <v>114660000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1404/03/02</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
         <v>69</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C38" t="n">
+        <v>300000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
         <v>600000</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1404/03/02</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
         <v>304</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C39" t="n">
+        <v>2550000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>168</v>
+      </c>
+      <c r="E39" t="n">
         <v>428400000</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1404/03/02</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
         <v>305</v>
       </c>
-      <c r="B5" t="n">
-        <v>1585270000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>308</v>
-      </c>
-      <c r="B6" t="n">
-        <v>101050000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="C40" t="n">
+        <v>2290000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>580</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1328200000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1404/04/21</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
         <v>311</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C41" t="n">
+        <v>2290000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>190</v>
+      </c>
+      <c r="E41" t="n">
         <v>435100000</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1404/04/21</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
         <v>313</v>
       </c>
-      <c r="B8" t="n">
-        <v>1025210000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="C42" t="n">
+        <v>2690000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>159</v>
+      </c>
+      <c r="E42" t="n">
+        <v>427710000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1404/04/21</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
         <v>318</v>
       </c>
-      <c r="B9" t="n">
-        <v>468640000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="C43" t="n">
+        <v>3190000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>63</v>
+      </c>
+      <c r="E43" t="n">
+        <v>200970000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1404/04/21</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
         <v>408</v>
       </c>
-      <c r="B10" t="n">
-        <v>1101640000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="C44" t="n">
+        <v>2490000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>182</v>
+      </c>
+      <c r="E44" t="n">
+        <v>453180000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1404/04/21</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
         <v>409</v>
       </c>
-      <c r="B11" t="n">
-        <v>1579820000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="C45" t="n">
+        <v>2590000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>264</v>
+      </c>
+      <c r="E45" t="n">
+        <v>683760000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1404/04/21</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
         <v>414</v>
       </c>
-      <c r="B12" t="n">
-        <v>1313890000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>415</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1346850000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>417</v>
-      </c>
-      <c r="B14" t="n">
-        <v>13170000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>419</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1266390000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>422</v>
-      </c>
-      <c r="B16" t="n">
-        <v>156880000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>423</v>
-      </c>
-      <c r="B17" t="n">
-        <v>87450000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>668</v>
-      </c>
-      <c r="B18" t="n">
-        <v>270900000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>669</v>
-      </c>
-      <c r="B19" t="n">
-        <v>186150000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>720</v>
-      </c>
-      <c r="B20" t="n">
-        <v>364080000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>723</v>
-      </c>
-      <c r="B21" t="n">
-        <v>114660000</v>
+      <c r="C46" t="n">
+        <v>2990000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>121</v>
+      </c>
+      <c r="E46" t="n">
+        <v>361790000</v>
       </c>
     </row>
   </sheetData>
